--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -55,274 +55,271 @@
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>poor</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>fear</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -680,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -770,16 +767,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -791,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -802,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -820,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -841,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -870,16 +867,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -891,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -899,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -917,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -941,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,16 +967,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -991,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -999,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.72</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1017,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.84375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1041,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1049,13 +1046,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6917808219178082</v>
+        <v>0.72</v>
       </c>
       <c r="C9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1067,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>0.8292682926829268</v>
@@ -1099,13 +1096,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6551724137931034</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,31 +1114,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
+        <v>106</v>
+      </c>
+      <c r="M10">
+        <v>106</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1149,13 +1146,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6521739130434783</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1167,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1191,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1199,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1217,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,13 +1246,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1267,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.7916666666666666</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1291,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1299,13 +1296,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5897435897435898</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1317,19 +1314,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1341,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1349,13 +1346,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1367,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1391,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1399,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5483870967741935</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1417,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.746031746031746</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1441,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1449,37 +1446,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5263157894736842</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>18</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.7368421052631579</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1491,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1499,13 +1496,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4615384615384616</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1517,19 +1514,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.7358490566037735</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1541,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1549,13 +1546,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4516129032258064</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1567,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.7272727272727273</v>
+        <v>0.70625</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1591,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1599,13 +1596,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4324324324324325</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1617,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1641,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1649,13 +1646,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4054054054054054</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1667,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.70625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1691,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1699,37 +1696,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3959731543624161</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C22">
+        <v>191</v>
+      </c>
+      <c r="D22">
+        <v>191</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>325</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D22">
-        <v>59</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>90</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K22">
-        <v>0.7058823529411765</v>
+        <v>0.6370757180156658</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1741,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1749,13 +1746,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3643410852713178</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C23">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1767,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>328</v>
+        <v>49</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.6764705882352942</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1799,13 +1796,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3544973544973545</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C24">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1817,19 +1814,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.6382978723404256</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1841,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1852,10 +1849,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1867,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.625</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1891,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1920,16 +1917,16 @@
         <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.6067415730337079</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L26">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1941,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1949,13 +1946,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.325</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1967,19 +1964,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.6057441253263708</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L27">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1991,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2020,16 +2017,16 @@
         <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.5588235294117647</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L28">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2041,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>150</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2049,49 +2046,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3116883116883117</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>39</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29">
+        <v>0.52</v>
+      </c>
+      <c r="L29">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>24</v>
-      </c>
-      <c r="D29">
-        <v>24</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>53</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L29">
-        <v>20</v>
-      </c>
-      <c r="M29">
-        <v>20</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2099,13 +2096,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2941176470588235</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2117,19 +2114,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2141,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2149,13 +2146,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2375</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2167,19 +2164,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K31">
-        <v>0.5348837209302325</v>
+        <v>0.497907949790795</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2191,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2199,13 +2196,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2301587301587301</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C32">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2217,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>194</v>
+        <v>330</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K32">
-        <v>0.52</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2241,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2249,187 +2246,115 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2222222222222222</v>
+        <v>0.005349276274386407</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
+        <v>3161</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33">
+        <v>0.46875</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="L34">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="L35">
+        <v>15</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K33">
-        <v>0.5186440677966102</v>
-      </c>
-      <c r="L33">
-        <v>153</v>
-      </c>
-      <c r="M33">
-        <v>153</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.2203389830508475</v>
-      </c>
-      <c r="C34">
-        <v>13</v>
-      </c>
-      <c r="D34">
-        <v>13</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>46</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34">
-        <v>0.5076923076923077</v>
-      </c>
-      <c r="L34">
-        <v>33</v>
-      </c>
-      <c r="M34">
-        <v>33</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.1099195710455764</v>
-      </c>
-      <c r="C35">
-        <v>41</v>
-      </c>
-      <c r="D35">
-        <v>41</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>332</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35">
-        <v>0.497907949790795</v>
-      </c>
-      <c r="L35">
-        <v>119</v>
-      </c>
-      <c r="M35">
-        <v>119</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.004930966469428008</v>
-      </c>
-      <c r="C36">
-        <v>15</v>
-      </c>
-      <c r="D36">
-        <v>80</v>
-      </c>
-      <c r="E36">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F36">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>3027</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K36">
-        <v>0.4657534246575342</v>
+        <v>0.45</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2441,47 +2366,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K37">
-        <v>0.4615384615384616</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K38">
-        <v>0.453125</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2493,21 +2418,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K39">
-        <v>0.45</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2519,21 +2444,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K40">
-        <v>0.4222222222222222</v>
+        <v>0.375</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2545,21 +2470,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K41">
-        <v>0.4047619047619048</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2571,21 +2496,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K42">
-        <v>0.3939393939393939</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2597,21 +2522,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K43">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2623,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K44">
-        <v>0.3714285714285714</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2649,21 +2574,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K45">
-        <v>0.2978723404255319</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2675,21 +2600,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K46">
-        <v>0.2372881355932203</v>
+        <v>0.1394230769230769</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2701,21 +2626,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K47">
-        <v>0.1789473684210526</v>
+        <v>0.1267942583732057</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2727,21 +2652,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>78</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K48">
-        <v>0.1244019138755981</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L48">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2753,21 +2678,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>366</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.1225961538461538</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L49">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2779,21 +2704,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>365</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.1221374045801527</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2805,21 +2730,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.1023622047244094</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2831,21 +2756,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>114</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.08389261744966443</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="L52">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2857,151 +2782,151 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>819</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.08222222222222222</v>
+        <v>0.08277404921700224</v>
       </c>
       <c r="L53">
         <v>74</v>
       </c>
       <c r="M53">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N53">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.08139534883720931</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.07441860465116279</v>
+        <v>0.0705521472392638</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>199</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.06748466257668712</v>
+        <v>0.06770255271920089</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>304</v>
+        <v>840</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>0.0478395061728395</v>
+        <v>0.0487012987012987</v>
       </c>
       <c r="L57">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>617</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K58">
-        <v>0.0411522633744856</v>
+        <v>0.04732510288065844</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3013,137 +2938,189 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K59">
-        <v>0.04067321178120617</v>
+        <v>0.04036908881199539</v>
       </c>
       <c r="L59">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="M59">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="N59">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>2052</v>
+        <v>832</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K60">
-        <v>0.04041570438799076</v>
+        <v>0.03277153558052434</v>
       </c>
       <c r="L60">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M60">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N60">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O60">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>831</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="K61">
-        <v>0.02102199223803363</v>
+        <v>0.03081664098613251</v>
       </c>
       <c r="L61">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="N61">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="O61">
-        <v>0.1899999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>3027</v>
+        <v>629</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K62">
-        <v>0.01861427094105481</v>
+        <v>0.0196837689577283</v>
       </c>
       <c r="L62">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="N62">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O62">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>949</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K63">
-        <v>0.01001564945226917</v>
+        <v>0.01656314699792961</v>
       </c>
       <c r="L63">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M63">
+        <v>18</v>
+      </c>
+      <c r="N63">
+        <v>0.89</v>
+      </c>
+      <c r="O63">
+        <v>0.11</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K64">
+        <v>0.01210025929127053</v>
+      </c>
+      <c r="L64">
+        <v>14</v>
+      </c>
+      <c r="M64">
+        <v>18</v>
+      </c>
+      <c r="N64">
+        <v>0.78</v>
+      </c>
+      <c r="O64">
+        <v>0.22</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N63">
-        <v>0.84</v>
-      </c>
-      <c r="O63">
-        <v>0.16</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>3163</v>
+      <c r="K65">
+        <v>0.007223618090452261</v>
+      </c>
+      <c r="L65">
+        <v>23</v>
+      </c>
+      <c r="M65">
+        <v>40</v>
+      </c>
+      <c r="N65">
+        <v>0.57</v>
+      </c>
+      <c r="O65">
+        <v>0.43</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3161</v>
       </c>
     </row>
   </sheetData>
